--- a/references/kawin_rate_calculation.xlsx
+++ b/references/kawin_rate_calculation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kawin\python\simple_formula1_strategy_optimization\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86E1FFD3-BEC7-431C-9F9E-A32A411B2727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB31D91-7499-4ECC-BF5B-DD036BD99373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{3F35DFF3-7B9E-4B93-B47D-7BBCD77F5157}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>FULL Number of Laps</t>
   </si>
@@ -51,6 +51,66 @@
   </si>
   <si>
     <t>percent loss all laps</t>
+  </si>
+  <si>
+    <t>engine mode</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>engine fuel consumption per lap</t>
+  </si>
+  <si>
+    <t>INIT FUEL</t>
+  </si>
+  <si>
+    <t>comsumption all laps</t>
+  </si>
+  <si>
+    <t>tyre mode</t>
+  </si>
+  <si>
+    <t>Soft</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>tyre reliability per lap</t>
+  </si>
+  <si>
+    <t>brake mode</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Warm</t>
+  </si>
+  <si>
+    <t>Fly</t>
+  </si>
+  <si>
+    <t>PitEntry</t>
+  </si>
+  <si>
+    <t>PitExit</t>
+  </si>
+  <si>
+    <t>Def</t>
+  </si>
+  <si>
+    <t>brake reliability per lap</t>
+  </si>
+  <si>
+    <t>reliability all laps</t>
   </si>
 </sst>
 </file>
@@ -402,15 +462,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{168D8D4F-587A-432F-A800-F7DBB27EB2C9}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="H10" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -421,112 +481,562 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>0.05</v>
-      </c>
-      <c r="C4">
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="B7">
+        <v>0.25</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>1.35</v>
       </c>
-      <c r="E4">
+      <c r="E7">
         <v>1.95</v>
       </c>
-      <c r="F4">
+      <c r="F7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G4">
+      <c r="G7">
         <v>3.2</v>
       </c>
-      <c r="H4">
+      <c r="H7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I4">
+      <c r="I7">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <f t="shared" ref="B5:G5" si="0">$I$5/$I$4*B4</f>
-        <v>2.2956841138659319E-2</v>
-      </c>
-      <c r="C5">
-        <f>$I$5/$I$4*C4</f>
+      <c r="B8">
+        <f>$I$8/$I$7*B7</f>
+        <v>0.11478420569329659</v>
+      </c>
+      <c r="C8">
+        <f>$I$8/$I$7*C7</f>
         <v>0.45913682277318635</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
+      <c r="D8">
+        <f>$I$8/$I$7*D7</f>
         <v>0.61983471074380159</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
+      <c r="E8">
+        <f>$I$8/$I$7*E7</f>
         <v>0.89531680440771333</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
+      <c r="F8">
+        <f>$I$8/$I$7*F7</f>
         <v>1.0560146923783285</v>
       </c>
-      <c r="G5">
-        <f>$I$5/$I$4*G4</f>
+      <c r="G8">
+        <f>$I$8/$I$7*G7</f>
         <v>1.4692378328741964</v>
       </c>
-      <c r="H5">
-        <f>$I$5/$I$4*H4</f>
+      <c r="H8">
+        <f>$I$8/$I$7*H7</f>
         <v>1.8824609733700639</v>
       </c>
-      <c r="I5">
+      <c r="I8">
         <f>100/(0.33*E1)</f>
         <v>4.5913682277318637</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <f>B5*$E$1</f>
-        <v>1.5151515151515151</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ref="C6:I6" si="1">C5*$E$1</f>
+      <c r="B9">
+        <f>B8*$E$1</f>
+        <v>7.5757575757575744</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:I9" si="0">C8*$E$1</f>
         <v>30.303030303030297</v>
       </c>
-      <c r="D6">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>40.909090909090907</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>59.090909090909079</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>69.696969696969674</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>96.969696969696969</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>124.24242424242422</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>303.030303030303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>0.25</v>
+      </c>
+      <c r="C12">
+        <v>0.5</v>
+      </c>
+      <c r="D12">
+        <v>0.75</v>
+      </c>
+      <c r="E12">
+        <v>1.2</v>
+      </c>
+      <c r="F12">
+        <v>1.3</v>
+      </c>
+      <c r="G12">
+        <v>1.4</v>
+      </c>
+      <c r="H12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ref="B13:G13" si="1">$I$13/$I$12*B12</f>
+        <v>0.25252525252525254</v>
+      </c>
+      <c r="C13">
         <f t="shared" si="1"/>
-        <v>40.909090909090907</v>
-      </c>
-      <c r="E6">
+        <v>0.50505050505050508</v>
+      </c>
+      <c r="D13">
+        <f>$I$13/$I$12*D12</f>
+        <v>0.75757575757575757</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="1"/>
-        <v>59.090909090909079</v>
-      </c>
-      <c r="F6">
+        <v>1.2121212121212122</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="1"/>
-        <v>69.696969696969674</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>96.969696969696969</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
-        <v>124.24242424242422</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>303.030303030303</v>
+        <v>1.3131313131313134</v>
+      </c>
+      <c r="G13">
+        <f>$I$13/$I$12*G12</f>
+        <v>1.4141414141414141</v>
+      </c>
+      <c r="H13">
+        <f>$I$13/$I$12*H12</f>
+        <v>2.2222222222222228</v>
+      </c>
+      <c r="I13">
+        <f>(2*E2)/E1</f>
+        <v>3.0303030303030303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <f>B13*$E$1</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:I14" si="2">C13*$E$1</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>86.666666666666686</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>146.66666666666671</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>5.31</v>
+      </c>
+      <c r="C19">
+        <v>4.25</v>
+      </c>
+      <c r="D19">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <f>100/(0.27*E1)</f>
+        <v>5.6116722783389452</v>
+      </c>
+      <c r="C20">
+        <f>100/(0.35*E1)</f>
+        <v>4.329004329004329</v>
+      </c>
+      <c r="D20">
+        <f>100/(0.39*E1)</f>
+        <v>3.8850038850038846</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23">
+        <v>6</v>
+      </c>
+      <c r="M23">
+        <v>7</v>
+      </c>
+      <c r="N23">
+        <v>8</v>
+      </c>
+      <c r="O23">
+        <v>9</v>
+      </c>
+      <c r="P23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>0.25</v>
+      </c>
+      <c r="C25">
+        <v>5.9</v>
+      </c>
+      <c r="D25">
+        <v>2.25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>3.15</v>
+      </c>
+      <c r="G25">
+        <v>3.3</v>
+      </c>
+      <c r="H25">
+        <v>3.45</v>
+      </c>
+      <c r="I25">
+        <v>3.6</v>
+      </c>
+      <c r="J25">
+        <v>1.25</v>
+      </c>
+      <c r="K25">
+        <v>1.28</v>
+      </c>
+      <c r="L25">
+        <v>2.5</v>
+      </c>
+      <c r="M25">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="N25">
+        <v>4.3</v>
+      </c>
+      <c r="O25">
+        <v>4.75</v>
+      </c>
+      <c r="P25">
+        <v>7.49</v>
+      </c>
+      <c r="Q25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26:O26" si="3">$Q$26/$Q$25*B25</f>
+        <v>6.3131313131313122E-2</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="3"/>
+        <v>1.4898989898989898</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="3"/>
+        <v>0.56818181818181812</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>0.75757575757575746</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>0.7954545454545453</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>0.83333333333333315</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>0.8712121212121211</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>0.31565656565656564</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>0.3232323232323232</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="3"/>
+        <v>0.63131313131313127</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="3"/>
+        <v>1.047979797979798</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="3"/>
+        <v>1.0858585858585856</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="3"/>
+        <v>1.1994949494949494</v>
+      </c>
+      <c r="P26">
+        <f>$Q$26/$Q$25*P25</f>
+        <v>1.8914141414141412</v>
+      </c>
+      <c r="Q26">
+        <f>100/(0.4*E1)</f>
+        <v>3.7878787878787876</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27:O27" si="4">B26*$E$1</f>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="4"/>
+        <v>98.333333333333329</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="4"/>
+        <v>37.499999999999993</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="4"/>
+        <v>49.999999999999993</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="4"/>
+        <v>52.499999999999993</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="4"/>
+        <v>54.999999999999986</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="4"/>
+        <v>57.499999999999993</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
+        <v>59.999999999999993</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>20.833333333333332</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="4"/>
+        <v>21.333333333333332</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="4"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="4"/>
+        <v>69.166666666666671</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="4"/>
+        <v>71.666666666666657</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="4"/>
+        <v>79.166666666666657</v>
+      </c>
+      <c r="P27">
+        <f>P26*$E$1</f>
+        <v>124.83333333333331</v>
+      </c>
+      <c r="Q27">
+        <f>Q26*$E$1</f>
+        <v>249.99999999999997</v>
       </c>
     </row>
   </sheetData>
